--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>16.45387866666667</v>
+        <v>32.120528</v>
       </c>
       <c r="H2">
-        <v>49.361636</v>
+        <v>96.36158399999999</v>
       </c>
       <c r="I2">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="J2">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.245879</v>
+        <v>17.52818033333334</v>
       </c>
       <c r="N2">
-        <v>21.737637</v>
+        <v>52.584541</v>
       </c>
       <c r="O2">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="P2">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="Q2">
-        <v>119.222813899348</v>
+        <v>563.0144071858828</v>
       </c>
       <c r="R2">
-        <v>1073.005325094132</v>
+        <v>5067.129664672943</v>
       </c>
       <c r="S2">
-        <v>0.1381604030094705</v>
+        <v>0.3129998107486588</v>
       </c>
       <c r="T2">
-        <v>0.1381604030094705</v>
+        <v>0.3129998107486588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>16.45387866666667</v>
+        <v>32.120528</v>
       </c>
       <c r="H3">
-        <v>49.361636</v>
+        <v>96.36158399999999</v>
       </c>
       <c r="I3">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="J3">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.18759</v>
       </c>
       <c r="O3">
-        <v>0.5833788733812698</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="P3">
-        <v>0.5833788733812697</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="Q3">
-        <v>192.9907788108045</v>
+        <v>376.7479899491734</v>
       </c>
       <c r="R3">
-        <v>1736.91700929724</v>
+        <v>3390.73190954256</v>
       </c>
       <c r="S3">
-        <v>0.2236458183257</v>
+        <v>0.209447658974553</v>
       </c>
       <c r="T3">
-        <v>0.2236458183256999</v>
+        <v>0.209447658974553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>16.45387866666667</v>
+        <v>32.120528</v>
       </c>
       <c r="H4">
-        <v>49.361636</v>
+        <v>96.36158399999999</v>
       </c>
       <c r="I4">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="J4">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9919303333333334</v>
+        <v>1.305498666666667</v>
       </c>
       <c r="N4">
-        <v>2.975791</v>
+        <v>3.916496</v>
       </c>
       <c r="O4">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="P4">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="Q4">
-        <v>16.32110135045289</v>
+        <v>41.93330647662933</v>
       </c>
       <c r="R4">
-        <v>146.889912154076</v>
+        <v>377.399758289664</v>
       </c>
       <c r="S4">
-        <v>0.01891357758122261</v>
+        <v>0.02331222225174276</v>
       </c>
       <c r="T4">
-        <v>0.01891357758122261</v>
+        <v>0.02331222225174276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>16.45387866666667</v>
+        <v>32.120528</v>
       </c>
       <c r="H5">
-        <v>49.361636</v>
+        <v>96.36158399999999</v>
       </c>
       <c r="I5">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="J5">
-        <v>0.3833629027898226</v>
+        <v>0.5492202673743384</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1386186666666666</v>
+        <v>0.1937943333333333</v>
       </c>
       <c r="N5">
-        <v>0.4158559999999999</v>
+        <v>0.581383</v>
       </c>
       <c r="O5">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="P5">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="Q5">
-        <v>2.280814722268444</v>
+        <v>6.224776310074666</v>
       </c>
       <c r="R5">
-        <v>20.527332500416</v>
+        <v>56.02298679067199</v>
       </c>
       <c r="S5">
-        <v>0.002643103873429589</v>
+        <v>0.003460575399383776</v>
       </c>
       <c r="T5">
-        <v>0.002643103873429589</v>
+        <v>0.003460575399383776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.49179166666666</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H6">
-        <v>67.47537499999999</v>
+        <v>67.475375</v>
       </c>
       <c r="I6">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833243</v>
       </c>
       <c r="J6">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833244</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>7.245879</v>
+        <v>17.52818033333334</v>
       </c>
       <c r="N6">
-        <v>21.737637</v>
+        <v>52.584541</v>
       </c>
       <c r="O6">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="P6">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="Q6">
-        <v>162.9728009098749</v>
+        <v>394.2401803530973</v>
       </c>
       <c r="R6">
-        <v>1466.755208188875</v>
+        <v>3548.161623177875</v>
       </c>
       <c r="S6">
-        <v>0.1888597250548006</v>
+        <v>0.2191721921590121</v>
       </c>
       <c r="T6">
-        <v>0.1888597250548006</v>
+        <v>0.2191721921590121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.49179166666666</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H7">
-        <v>67.47537499999999</v>
+        <v>67.475375</v>
       </c>
       <c r="I7">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833243</v>
       </c>
       <c r="J7">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>35.18759</v>
       </c>
       <c r="O7">
-        <v>0.5833788733812698</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="P7">
-        <v>0.5833788733812697</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="Q7">
-        <v>263.8106478440277</v>
+        <v>263.8106478440278</v>
       </c>
       <c r="R7">
-        <v>2374.295830596249</v>
+        <v>2374.29583059625</v>
       </c>
       <c r="S7">
-        <v>0.3057148563452896</v>
+        <v>0.1466617581979565</v>
       </c>
       <c r="T7">
-        <v>0.3057148563452895</v>
+        <v>0.1466617581979566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.49179166666666</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H8">
-        <v>67.47537499999999</v>
+        <v>67.475375</v>
       </c>
       <c r="I8">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833243</v>
       </c>
       <c r="J8">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833244</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9919303333333334</v>
+        <v>1.305498666666667</v>
       </c>
       <c r="N8">
-        <v>2.975791</v>
+        <v>3.916496</v>
       </c>
       <c r="O8">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="P8">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="Q8">
-        <v>22.31029040518055</v>
+        <v>29.36300403177778</v>
       </c>
       <c r="R8">
-        <v>200.792613646625</v>
+        <v>264.267036286</v>
       </c>
       <c r="S8">
-        <v>0.02585410134875976</v>
+        <v>0.01632394231418702</v>
       </c>
       <c r="T8">
-        <v>0.02585410134875976</v>
+        <v>0.01632394231418702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.49179166666666</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H9">
-        <v>67.47537499999999</v>
+        <v>67.475375</v>
       </c>
       <c r="I9">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833243</v>
       </c>
       <c r="J9">
-        <v>0.5240416996477146</v>
+        <v>0.3845810950833244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1386186666666666</v>
+        <v>0.1937943333333333</v>
       </c>
       <c r="N9">
-        <v>0.4158559999999999</v>
+        <v>0.581383</v>
       </c>
       <c r="O9">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="P9">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="Q9">
-        <v>3.117782171777777</v>
+        <v>4.358781771513889</v>
       </c>
       <c r="R9">
-        <v>28.06003954599999</v>
+        <v>39.229035943625</v>
       </c>
       <c r="S9">
-        <v>0.003613016898864819</v>
+        <v>0.002423202412168681</v>
       </c>
       <c r="T9">
-        <v>0.003613016898864819</v>
+        <v>0.002423202412168682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.940522</v>
+        <v>3.864125333333333</v>
       </c>
       <c r="H10">
-        <v>11.821566</v>
+        <v>11.592376</v>
       </c>
       <c r="I10">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="J10">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>7.245879</v>
+        <v>17.52818033333334</v>
       </c>
       <c r="N10">
-        <v>21.737637</v>
+        <v>52.584541</v>
       </c>
       <c r="O10">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="P10">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="Q10">
-        <v>28.552545608838</v>
+        <v>67.73108567326845</v>
       </c>
       <c r="R10">
-        <v>256.972910479542</v>
+        <v>609.579771059416</v>
       </c>
       <c r="S10">
-        <v>0.03308788879613014</v>
+        <v>0.03765412878774694</v>
       </c>
       <c r="T10">
-        <v>0.03308788879613013</v>
+        <v>0.03765412878774694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.940522</v>
+        <v>3.864125333333333</v>
       </c>
       <c r="H11">
-        <v>11.821566</v>
+        <v>11.592376</v>
       </c>
       <c r="I11">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="J11">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.18759</v>
       </c>
       <c r="O11">
-        <v>0.5833788733812698</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="P11">
-        <v>0.5833788733812697</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="Q11">
-        <v>46.21915750732667</v>
+        <v>45.32308597931556</v>
       </c>
       <c r="R11">
-        <v>415.97241756594</v>
+        <v>407.90777381384</v>
       </c>
       <c r="S11">
-        <v>0.05356070049949867</v>
+        <v>0.02519672170553769</v>
       </c>
       <c r="T11">
-        <v>0.05356070049949866</v>
+        <v>0.02519672170553769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.940522</v>
+        <v>3.864125333333333</v>
       </c>
       <c r="H12">
-        <v>11.821566</v>
+        <v>11.592376</v>
       </c>
       <c r="I12">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="J12">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9919303333333334</v>
+        <v>1.305498666666667</v>
       </c>
       <c r="N12">
-        <v>2.975791</v>
+        <v>3.916496</v>
       </c>
       <c r="O12">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="P12">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="Q12">
-        <v>3.908723300967333</v>
+        <v>5.044610470499555</v>
       </c>
       <c r="R12">
-        <v>35.178509708706</v>
+        <v>45.401494234496</v>
       </c>
       <c r="S12">
-        <v>0.004529592691630875</v>
+        <v>0.002804479072674529</v>
       </c>
       <c r="T12">
-        <v>0.004529592691630875</v>
+        <v>0.002804479072674529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.940522</v>
+        <v>3.864125333333333</v>
       </c>
       <c r="H13">
-        <v>11.821566</v>
+        <v>11.592376</v>
       </c>
       <c r="I13">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="J13">
-        <v>0.09181117613851923</v>
+        <v>0.06607163956773338</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1386186666666666</v>
+        <v>0.1937943333333333</v>
       </c>
       <c r="N13">
-        <v>0.4158559999999999</v>
+        <v>0.581383</v>
       </c>
       <c r="O13">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="P13">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="Q13">
-        <v>0.5462299056106665</v>
+        <v>0.7488455928897777</v>
       </c>
       <c r="R13">
-        <v>4.916069150496</v>
+        <v>6.739610336008</v>
       </c>
       <c r="S13">
-        <v>0.0006329941512595638</v>
+        <v>0.0004163100017742226</v>
       </c>
       <c r="T13">
-        <v>0.0006329941512595638</v>
+        <v>0.0004163100017742226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03365866666666667</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H14">
-        <v>0.100976</v>
+        <v>0.022282</v>
       </c>
       <c r="I14">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="J14">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>7.245879</v>
+        <v>17.52818033333334</v>
       </c>
       <c r="N14">
-        <v>21.737637</v>
+        <v>52.584541</v>
       </c>
       <c r="O14">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="P14">
-        <v>0.3603906429235706</v>
+        <v>0.5698985076516194</v>
       </c>
       <c r="Q14">
-        <v>0.243886625968</v>
+        <v>0.1301876380624445</v>
       </c>
       <c r="R14">
-        <v>2.194979633712</v>
+        <v>1.171688742562</v>
       </c>
       <c r="S14">
-        <v>0.0002826260631694682</v>
+        <v>7.237595620160848E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002826260631694681</v>
+        <v>7.237595620160849E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03365866666666667</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H15">
-        <v>0.100976</v>
+        <v>0.022282</v>
       </c>
       <c r="I15">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="J15">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.18759</v>
       </c>
       <c r="O15">
-        <v>0.5833788733812698</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="P15">
-        <v>0.5833788733812697</v>
+        <v>0.3813545701360604</v>
       </c>
       <c r="Q15">
-        <v>0.3947891208711112</v>
+        <v>0.08711665337555556</v>
       </c>
       <c r="R15">
-        <v>3.553102087840001</v>
+        <v>0.78404988038</v>
       </c>
       <c r="S15">
-        <v>0.0004574982107816662</v>
+        <v>4.843125801326584E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004574982107816661</v>
+        <v>4.843125801326585E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03365866666666667</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H16">
-        <v>0.100976</v>
+        <v>0.022282</v>
       </c>
       <c r="I16">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="J16">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9919303333333334</v>
+        <v>1.305498666666667</v>
       </c>
       <c r="N16">
-        <v>2.975791</v>
+        <v>3.916496</v>
       </c>
       <c r="O16">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="P16">
-        <v>0.04933596193993741</v>
+        <v>0.04244603419897754</v>
       </c>
       <c r="Q16">
-        <v>0.03338705244622223</v>
+        <v>0.009696373763555555</v>
       </c>
       <c r="R16">
-        <v>0.3004834720160001</v>
+        <v>0.087267363872</v>
       </c>
       <c r="S16">
-        <v>3.869031832416443E-05</v>
+        <v>5.390560373243056E-06</v>
       </c>
       <c r="T16">
-        <v>3.869031832416443E-05</v>
+        <v>5.390560373243057E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03365866666666667</v>
+        <v>0.007427333333333334</v>
       </c>
       <c r="H17">
-        <v>0.100976</v>
+        <v>0.022282</v>
       </c>
       <c r="I17">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="J17">
-        <v>0.0007842214239435891</v>
+        <v>0.0001269979746040186</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1386186666666666</v>
+        <v>0.1937943333333333</v>
       </c>
       <c r="N17">
-        <v>0.4158559999999999</v>
+        <v>0.581383</v>
       </c>
       <c r="O17">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="P17">
-        <v>0.006894521755222261</v>
+        <v>0.00630088801334258</v>
       </c>
       <c r="Q17">
-        <v>0.004665719495111111</v>
+        <v>0.001439375111777778</v>
       </c>
       <c r="R17">
-        <v>0.041991475456</v>
+        <v>0.012954376006</v>
       </c>
       <c r="S17">
-        <v>5.406831668290455E-06</v>
+        <v>8.002000159012463E-07</v>
       </c>
       <c r="T17">
-        <v>5.406831668290455E-06</v>
+        <v>8.002000159012464E-07</v>
       </c>
     </row>
   </sheetData>
